--- a/data/trans_orig/P2A_ner_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_ner_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6871</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2885</v>
+        <v>2954</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13415</v>
+        <v>13729</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01390642784725678</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005838547789774026</v>
+        <v>0.005979164563408276</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0271520526586741</v>
+        <v>0.02778784864291022</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>10210</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5458</v>
+        <v>5592</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18883</v>
+        <v>17422</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02183993288857891</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01167425832942828</v>
+        <v>0.01196267120466468</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04039270327259788</v>
+        <v>0.03726717894563362</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -786,19 +786,19 @@
         <v>17081</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10097</v>
+        <v>10828</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25805</v>
+        <v>27894</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01776354984194516</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0105005502482609</v>
+        <v>0.01126071520258069</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02683638399290551</v>
+        <v>0.02900906249452762</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>487193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>480649</v>
+        <v>480335</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>491179</v>
+        <v>491110</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9860935721527432</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9728479473413258</v>
+        <v>0.9722121513570896</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.994161452210226</v>
+        <v>0.9940208354365917</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>477</v>
@@ -836,19 +836,19 @@
         <v>457279</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>448606</v>
+        <v>450067</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>462031</v>
+        <v>461897</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9781600671114211</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9596072967274024</v>
+        <v>0.9627328210543664</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9883257416705717</v>
+        <v>0.9880373287953353</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>969</v>
@@ -857,19 +857,19 @@
         <v>944472</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>935748</v>
+        <v>933659</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>951456</v>
+        <v>950725</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9822364501580548</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9731636160070943</v>
+        <v>0.9709909375054722</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.989499449751739</v>
+        <v>0.9887392847974192</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>15413</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8894</v>
+        <v>8810</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24773</v>
+        <v>24931</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02095677254188387</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01209228577230132</v>
+        <v>0.01197800795830458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03368253609022669</v>
+        <v>0.03389660142705408</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -982,19 +982,19 @@
         <v>13345</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8032</v>
+        <v>7236</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24098</v>
+        <v>22764</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02133454882829177</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01284060611849948</v>
+        <v>0.01156857947541138</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03852658390610796</v>
+        <v>0.03639396695595384</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -1003,19 +1003,19 @@
         <v>28758</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19863</v>
+        <v>19515</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41644</v>
+        <v>41166</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02113039471883274</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01459436891538584</v>
+        <v>0.01433914702969201</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03059837222106176</v>
+        <v>0.03024711996713756</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>720076</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>710716</v>
+        <v>710558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>726595</v>
+        <v>726679</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9790432274581161</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9663174639097732</v>
+        <v>0.9661033985729461</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9879077142276987</v>
+        <v>0.9880219920416954</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>579</v>
@@ -1053,19 +1053,19 @@
         <v>612149</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>601396</v>
+        <v>602730</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>617462</v>
+        <v>618258</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9786654511717082</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9614734160938919</v>
+        <v>0.9636060330440462</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9871593938815004</v>
+        <v>0.9884314205245887</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1266</v>
@@ -1074,19 +1074,19 @@
         <v>1332224</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1319338</v>
+        <v>1319816</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1341119</v>
+        <v>1341467</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9788696052811673</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9694016277789385</v>
+        <v>0.9697528800328629</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9854056310846142</v>
+        <v>0.985660852970308</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>21608</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13283</v>
+        <v>13506</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32898</v>
+        <v>33824</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03383268623142405</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0207986054560534</v>
+        <v>0.02114669096136549</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05151017076764444</v>
+        <v>0.05296004773187667</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1199,19 +1199,19 @@
         <v>32387</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21750</v>
+        <v>21893</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44778</v>
+        <v>45162</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04695546740919489</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03153271519538257</v>
+        <v>0.03174016293718637</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06491979750516159</v>
+        <v>0.06547686682146621</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -1220,19 +1220,19 @@
         <v>53995</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39632</v>
+        <v>40465</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71543</v>
+        <v>70862</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04064635851504292</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02983394481208574</v>
+        <v>0.03046092902861978</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05385595360383957</v>
+        <v>0.0533432940005547</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>617060</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>605770</v>
+        <v>604844</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>625385</v>
+        <v>625162</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9661673137685759</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9484898292323556</v>
+        <v>0.9470399522681234</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9792013945439466</v>
+        <v>0.9788533090386345</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>629</v>
@@ -1270,19 +1270,19 @@
         <v>657357</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>644966</v>
+        <v>644582</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>667994</v>
+        <v>667851</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9530445325908051</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9350802024948383</v>
+        <v>0.9345231331785336</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9684672848046174</v>
+        <v>0.9682598370628135</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1223</v>
@@ -1291,19 +1291,19 @@
         <v>1274417</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1256869</v>
+        <v>1257550</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1288780</v>
+        <v>1287947</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9593536414849571</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9461440463961605</v>
+        <v>0.9466567059994454</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9701660551879143</v>
+        <v>0.9695390709713803</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>11665</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6233</v>
+        <v>6208</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20405</v>
+        <v>20384</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02246939930080008</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01200681886968001</v>
+        <v>0.01195753318918187</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03930443159919887</v>
+        <v>0.03926485299771821</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -1416,19 +1416,19 @@
         <v>28716</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18864</v>
+        <v>19811</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40248</v>
+        <v>41784</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05569062698226055</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.036584211947676</v>
+        <v>0.03842085104084738</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07805492185054745</v>
+        <v>0.08103345588649281</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -1437,19 +1437,19 @@
         <v>40381</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29212</v>
+        <v>29648</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54712</v>
+        <v>54128</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03902374942376458</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02823022461113189</v>
+        <v>0.02865137821232907</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05287283712984041</v>
+        <v>0.05230817352511382</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>507482</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498742</v>
+        <v>498763</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>512914</v>
+        <v>512939</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9775306006991999</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9606955684008011</v>
+        <v>0.9607351470022818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9879931811303199</v>
+        <v>0.9880424668108181</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>474</v>
@@ -1487,19 +1487,19 @@
         <v>486926</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>475394</v>
+        <v>473858</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>496778</v>
+        <v>495831</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9443093730177394</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9219450781494521</v>
+        <v>0.9189665441135073</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.963415788052324</v>
+        <v>0.9615791489591526</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>947</v>
@@ -1508,19 +1508,19 @@
         <v>994408</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>980077</v>
+        <v>980661</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1005577</v>
+        <v>1005141</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9609762505762355</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9471271628701597</v>
+        <v>0.9476918264748863</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9717697753888682</v>
+        <v>0.971348621787671</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>15701</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9217</v>
+        <v>9216</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24785</v>
+        <v>25230</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04060187572692359</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02383567407611254</v>
+        <v>0.02383137935248722</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06409275841997321</v>
+        <v>0.06524374879813566</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1633,19 +1633,19 @@
         <v>22670</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14678</v>
+        <v>14653</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32115</v>
+        <v>33039</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0561156401909536</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0363338613427449</v>
+        <v>0.03626998822338158</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07949620709661068</v>
+        <v>0.08178154756273293</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -1654,19 +1654,19 @@
         <v>38371</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27559</v>
+        <v>27424</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52026</v>
+        <v>50831</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04852823833968282</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03485385307233829</v>
+        <v>0.03468388727021425</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06579713294167949</v>
+        <v>0.06428587433903848</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>371009</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>361925</v>
+        <v>361480</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>377493</v>
+        <v>377494</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9593981242730764</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9359072415800272</v>
+        <v>0.9347562512018643</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9761643259238876</v>
+        <v>0.9761686206475128</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>373</v>
@@ -1704,19 +1704,19 @@
         <v>381316</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>371871</v>
+        <v>370947</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>389308</v>
+        <v>389333</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9438843598090464</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9205037929033892</v>
+        <v>0.9182184524372671</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9636661386572551</v>
+        <v>0.9637300117766184</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>749</v>
@@ -1725,19 +1725,19 @@
         <v>752325</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>738670</v>
+        <v>739865</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>763137</v>
+        <v>763272</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9514717616603172</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9342028670583218</v>
+        <v>0.9357141256609617</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9651461469276618</v>
+        <v>0.9653161127297858</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>12360</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6676</v>
+        <v>6777</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19107</v>
+        <v>19337</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04224406965030941</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0228173213671251</v>
+        <v>0.02316387210486661</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06530483736619452</v>
+        <v>0.06609210915335872</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -1850,19 +1850,19 @@
         <v>24311</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16468</v>
+        <v>16625</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34572</v>
+        <v>33895</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07089137292860544</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0480221148809865</v>
+        <v>0.04847802694517896</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1008117084700756</v>
+        <v>0.09883749845796447</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -1871,19 +1871,19 @@
         <v>36671</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26803</v>
+        <v>26295</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49541</v>
+        <v>49129</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05770256137607152</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.042175445353094</v>
+        <v>0.04137640244560681</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07795389133576161</v>
+        <v>0.0773058417927906</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>280223</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>273476</v>
+        <v>273246</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>285907</v>
+        <v>285806</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9577559303496906</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9346951626338054</v>
+        <v>0.9339078908466413</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9771826786328748</v>
+        <v>0.9768361278951333</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>345</v>
@@ -1921,19 +1921,19 @@
         <v>318623</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>308362</v>
+        <v>309039</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>326466</v>
+        <v>326309</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9291086270713945</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8991882915299243</v>
+        <v>0.9011625015420356</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9519778851190135</v>
+        <v>0.951521973054821</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>634</v>
@@ -1942,19 +1942,19 @@
         <v>598846</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>585976</v>
+        <v>586388</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>608714</v>
+        <v>609222</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9422974386239285</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9220461086642383</v>
+        <v>0.9226941582072093</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.957824554646906</v>
+        <v>0.9586235975543932</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>7301</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3547</v>
+        <v>3472</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14231</v>
+        <v>13768</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03478457243358692</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01689893245976968</v>
+        <v>0.01654200616567674</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06780515290752256</v>
+        <v>0.06559899059163407</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2067,19 +2067,19 @@
         <v>23315</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14927</v>
+        <v>15023</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33784</v>
+        <v>33864</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06982567284259177</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04470278638197604</v>
+        <v>0.04499003924578343</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1011761015368441</v>
+        <v>0.1014169680853773</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -2088,19 +2088,19 @@
         <v>30616</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20974</v>
+        <v>21658</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42806</v>
+        <v>44860</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05630111740299585</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03857072638883877</v>
+        <v>0.03982759555640269</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07871683770869169</v>
+        <v>0.08249424509915766</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>202582</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>195652</v>
+        <v>196115</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>206336</v>
+        <v>206411</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9652154275664131</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9321948470924775</v>
+        <v>0.9344010094083659</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9831010675402304</v>
+        <v>0.9834579938343232</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>270</v>
@@ -2138,19 +2138,19 @@
         <v>310593</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>300124</v>
+        <v>300044</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>318981</v>
+        <v>318885</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9301743271574082</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8988238984631558</v>
+        <v>0.8985830319146229</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9552972136180239</v>
+        <v>0.9550099607542166</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>482</v>
@@ -2159,19 +2159,19 @@
         <v>513175</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>500985</v>
+        <v>498931</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>522817</v>
+        <v>522133</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9436988825970042</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9212831622913081</v>
+        <v>0.9175057549008429</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9614292736111612</v>
+        <v>0.9601724044435973</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>90919</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>72294</v>
+        <v>72137</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>111367</v>
+        <v>112515</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02774833934472318</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02206400712316557</v>
+        <v>0.02201620547531691</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03398913916228714</v>
+        <v>0.03433946607954604</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>150</v>
@@ -2284,19 +2284,19 @@
         <v>154955</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>132437</v>
+        <v>131288</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>181069</v>
+        <v>183388</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04585544588936078</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03919172628387023</v>
+        <v>0.03885182444049251</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05358341897763245</v>
+        <v>0.05426981072098378</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>241</v>
@@ -2305,19 +2305,19 @@
         <v>245873</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>219158</v>
+        <v>214771</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>278984</v>
+        <v>279229</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03694152896909649</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03292772153812926</v>
+        <v>0.03226855478867166</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04191629888241421</v>
+        <v>0.04195306218192644</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3185624</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3165176</v>
+        <v>3164028</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3204249</v>
+        <v>3204406</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9722516606552768</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9660108608377128</v>
+        <v>0.9656605339204534</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9779359928768343</v>
+        <v>0.9779837945246829</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3147</v>
@@ -2355,19 +2355,19 @@
         <v>3224242</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3198128</v>
+        <v>3195809</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3246760</v>
+        <v>3247909</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9541445541106393</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9464165810223676</v>
+        <v>0.9457301892790161</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9608082737161299</v>
+        <v>0.9611481755595074</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6270</v>
@@ -2376,19 +2376,19 @@
         <v>6409868</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6376757</v>
+        <v>6376512</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6436583</v>
+        <v>6440970</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9630584710309035</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9580837011175858</v>
+        <v>0.9580469378180735</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9670722784618707</v>
+        <v>0.9677314452113284</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>5620</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1926</v>
+        <v>2631</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12106</v>
+        <v>12963</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0123758768294855</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004241272599052799</v>
+        <v>0.005792868045576848</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02665688235091293</v>
+        <v>0.02854277584777391</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2744,19 +2744,19 @@
         <v>6922</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3022</v>
+        <v>2893</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13955</v>
+        <v>13703</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01608877647591779</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007023544112630432</v>
+        <v>0.006725112701119446</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03243575688385172</v>
+        <v>0.0318511251518268</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -2765,19 +2765,19 @@
         <v>12542</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6946</v>
+        <v>7247</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21067</v>
+        <v>21091</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01418212232495846</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007854464821332041</v>
+        <v>0.008194758068848809</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02382161396901232</v>
+        <v>0.02384838280468097</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>448526</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>442040</v>
+        <v>441183</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>452220</v>
+        <v>451515</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9876241231705145</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.973343117649087</v>
+        <v>0.9714572241522249</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9957587274009471</v>
+        <v>0.9942071319544231</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>414</v>
@@ -2815,19 +2815,19 @@
         <v>423308</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>416275</v>
+        <v>416527</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>427208</v>
+        <v>427337</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9839112235240822</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9675642431161485</v>
+        <v>0.9681488748481732</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9929764558873696</v>
+        <v>0.9932748872988806</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>854</v>
@@ -2836,19 +2836,19 @@
         <v>871834</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>863309</v>
+        <v>863285</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>877430</v>
+        <v>877129</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9858178776750416</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9761783860309875</v>
+        <v>0.9761516171953191</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.992145535178668</v>
+        <v>0.991805241931151</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>9324</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4622</v>
+        <v>4768</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16747</v>
+        <v>16977</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01357000477539669</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006727648354744861</v>
+        <v>0.006938983122955319</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02437360389934891</v>
+        <v>0.02470887545406518</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -2961,19 +2961,19 @@
         <v>18550</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11086</v>
+        <v>10802</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28894</v>
+        <v>27454</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03039634888909032</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0181666249119929</v>
+        <v>0.01770057831996023</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04734741429271068</v>
+        <v>0.04498760480270837</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -2982,19 +2982,19 @@
         <v>27873</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19483</v>
+        <v>18859</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40585</v>
+        <v>39850</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02148492925477854</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01501735819656974</v>
+        <v>0.0145364255922761</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03128345389959415</v>
+        <v>0.03071645724839578</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>677763</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>670340</v>
+        <v>670110</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>682465</v>
+        <v>682319</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9864299952246033</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.975626396100651</v>
+        <v>0.9752911245459349</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9932723516452552</v>
+        <v>0.9930610168770448</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>553</v>
@@ -3032,19 +3032,19 @@
         <v>591705</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>581361</v>
+        <v>582801</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>599169</v>
+        <v>599453</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9696036511109097</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9526525857072891</v>
+        <v>0.9550123951972914</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9818333750880069</v>
+        <v>0.9822994216800396</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1210</v>
@@ -3053,19 +3053,19 @@
         <v>1269469</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1256757</v>
+        <v>1257492</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1277859</v>
+        <v>1278483</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9785150707452215</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9687165461004058</v>
+        <v>0.9692835427516042</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9849826418034303</v>
+        <v>0.9854635744077239</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>31593</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21387</v>
+        <v>20884</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44809</v>
+        <v>44099</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04633262613529558</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03136570434807984</v>
+        <v>0.03062774480641781</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06571542272339588</v>
+        <v>0.06467450841751089</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -3178,19 +3178,19 @@
         <v>33707</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23178</v>
+        <v>23711</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47843</v>
+        <v>47396</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04741773019362153</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0326064446154252</v>
+        <v>0.03335519646300668</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.067303834124048</v>
+        <v>0.06667521932685978</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -3199,19 +3199,19 @@
         <v>65299</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49479</v>
+        <v>49584</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84706</v>
+        <v>84121</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04688647048495761</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03552732319132981</v>
+        <v>0.03560217386219895</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06082065999698661</v>
+        <v>0.06040077710198932</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>650270</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>637054</v>
+        <v>637764</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>660476</v>
+        <v>660979</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9536673738647045</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9342845772766035</v>
+        <v>0.9353254915824889</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9686342956519202</v>
+        <v>0.9693722551935819</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>636</v>
@@ -3249,19 +3249,19 @@
         <v>677143</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>663007</v>
+        <v>663454</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>687672</v>
+        <v>687139</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9525822698063785</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9326961658759519</v>
+        <v>0.9333247806731403</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9673935553845748</v>
+        <v>0.9666448035369933</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1258</v>
@@ -3270,19 +3270,19 @@
         <v>1327413</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1308006</v>
+        <v>1308591</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1343233</v>
+        <v>1343128</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9531135295150424</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9391793400030134</v>
+        <v>0.9395992228980107</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9644726768086703</v>
+        <v>0.9643978261378011</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>18535</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10299</v>
+        <v>11131</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30701</v>
+        <v>31810</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03015622657711238</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01675757995954941</v>
+        <v>0.01811115766667033</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04995173571702995</v>
+        <v>0.05175557025596614</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -3395,19 +3395,19 @@
         <v>33075</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23193</v>
+        <v>23095</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45060</v>
+        <v>44525</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05367654601269341</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03763955855972491</v>
+        <v>0.03747996528153527</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07312501464806347</v>
+        <v>0.07225788295163532</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -3416,19 +3416,19 @@
         <v>51610</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38110</v>
+        <v>38274</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67557</v>
+        <v>67665</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04193150596001095</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03096351344763001</v>
+        <v>0.03109661859191864</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05488819028343626</v>
+        <v>0.0549753988557792</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>596082</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>583916</v>
+        <v>582807</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>604318</v>
+        <v>603486</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9698437734228876</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.950048264282971</v>
+        <v>0.9482444297440339</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9832424200404509</v>
+        <v>0.9818888423333296</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>508</v>
@@ -3466,19 +3466,19 @@
         <v>583124</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>571139</v>
+        <v>571674</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>593006</v>
+        <v>593104</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9463234539873066</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9268749853519365</v>
+        <v>0.927742117048365</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9623604414402751</v>
+        <v>0.9625200347184649</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1041</v>
@@ -3487,19 +3487,19 @@
         <v>1179206</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1163259</v>
+        <v>1163151</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1192706</v>
+        <v>1192542</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9580684940399891</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9451118097165633</v>
+        <v>0.9450246011442212</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.96903648655237</v>
+        <v>0.9689033814080813</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>14095</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7777</v>
+        <v>8025</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23214</v>
+        <v>23247</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03282343168726923</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01810911823670321</v>
+        <v>0.01868866855653544</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05405758201538256</v>
+        <v>0.0541337115992949</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -3612,19 +3612,19 @@
         <v>25075</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16592</v>
+        <v>16550</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36068</v>
+        <v>35981</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05599563973681282</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03705298425932551</v>
+        <v>0.03695806083885331</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08054414638443462</v>
+        <v>0.08034957046271859</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -3633,19 +3633,19 @@
         <v>39170</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28022</v>
+        <v>27812</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52744</v>
+        <v>52529</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04465217067396127</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03194429129724773</v>
+        <v>0.03170474641175727</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06012589167698352</v>
+        <v>0.05988015527157037</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>415334</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>406215</v>
+        <v>406182</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>421652</v>
+        <v>421404</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9671765683127308</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9459424179846173</v>
+        <v>0.9458662884007049</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9818908817632968</v>
+        <v>0.9813113314434646</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>382</v>
@@ -3683,19 +3683,19 @@
         <v>422725</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>411732</v>
+        <v>411819</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>431208</v>
+        <v>431250</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9440043602631872</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9194558536155656</v>
+        <v>0.9196504295372815</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9629470157406745</v>
+        <v>0.9630419391611467</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>761</v>
@@ -3704,19 +3704,19 @@
         <v>838059</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>824485</v>
+        <v>824700</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>849207</v>
+        <v>849417</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9553478293260387</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9398741083230164</v>
+        <v>0.9401198447284296</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9680557087027523</v>
+        <v>0.9682952535882428</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>13755</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7401</v>
+        <v>7666</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22874</v>
+        <v>22261</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04440042095952441</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02389011803721705</v>
+        <v>0.02474491068458383</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07383664272449866</v>
+        <v>0.0718578417321567</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -3829,19 +3829,19 @@
         <v>33319</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24133</v>
+        <v>23406</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44030</v>
+        <v>44602</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09412114799699116</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06817406680173316</v>
+        <v>0.06611944200695992</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1243796334125227</v>
+        <v>0.1259955799656738</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>48</v>
@@ -3850,19 +3850,19 @@
         <v>47073</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35237</v>
+        <v>35611</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61315</v>
+        <v>61057</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07091655676068505</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05308540224628391</v>
+        <v>0.05364887626406701</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09237280276839523</v>
+        <v>0.09198339168392343</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>296031</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>286912</v>
+        <v>287525</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>302385</v>
+        <v>302120</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9555995790404755</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9261633572755014</v>
+        <v>0.9281421582678434</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9761098819627831</v>
+        <v>0.9752550893154162</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>310</v>
@@ -3900,19 +3900,19 @@
         <v>320677</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>309966</v>
+        <v>309394</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>329863</v>
+        <v>330590</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9058788520030089</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.875620366587477</v>
+        <v>0.8740044200343261</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9318259331982669</v>
+        <v>0.93388055799304</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>578</v>
@@ -3921,19 +3921,19 @@
         <v>616709</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>602467</v>
+        <v>602725</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>628545</v>
+        <v>628171</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9290834432393149</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9076271972316048</v>
+        <v>0.9080166083160768</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9469145977537163</v>
+        <v>0.9463511237359331</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>12297</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6168</v>
+        <v>6084</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21671</v>
+        <v>22264</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0492160512166793</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02468865731712952</v>
+        <v>0.02434977288955831</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08673576950646134</v>
+        <v>0.08910814437400037</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -4046,19 +4046,19 @@
         <v>24916</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15342</v>
+        <v>16071</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34737</v>
+        <v>36196</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06405441157046253</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03944271425526516</v>
+        <v>0.04131669018501861</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08930372538120337</v>
+        <v>0.09305499569907365</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -4067,19 +4067,19 @@
         <v>37213</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25920</v>
+        <v>25936</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50978</v>
+        <v>51241</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05825102434329907</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04057375245304652</v>
+        <v>0.04059857226411839</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07979963242463574</v>
+        <v>0.08021058382055668</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>237554</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>228180</v>
+        <v>227587</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>243683</v>
+        <v>243767</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9507839487833207</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9132642304935388</v>
+        <v>0.9108918556259994</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9753113426828706</v>
+        <v>0.9756502271104417</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>328</v>
@@ -4117,19 +4117,19 @@
         <v>364063</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>354242</v>
+        <v>352783</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>373637</v>
+        <v>372908</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9359455884295375</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9106962746187967</v>
+        <v>0.9069450043009264</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9605572857447349</v>
+        <v>0.9586833098149814</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>539</v>
@@ -4138,19 +4138,19 @@
         <v>601617</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>587852</v>
+        <v>587589</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>612910</v>
+        <v>612894</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9417489756567009</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9202003675753642</v>
+        <v>0.9197894161794432</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9594262475469534</v>
+        <v>0.9594014277358814</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>105218</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>84832</v>
+        <v>84998</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>126411</v>
+        <v>127064</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03070460341549243</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02475570453097915</v>
+        <v>0.0248041763386545</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03688922285453251</v>
+        <v>0.03707978731597227</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>167</v>
@@ -4263,19 +4263,19 @@
         <v>175563</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>149937</v>
+        <v>148645</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>203161</v>
+        <v>201216</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04933885643742431</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04213703710780124</v>
+        <v>0.04177398391423003</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05709469365034277</v>
+        <v>0.05654822531355622</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>266</v>
@@ -4284,19 +4284,19 @@
         <v>280781</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>247905</v>
+        <v>248314</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>316904</v>
+        <v>316905</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04019717278217891</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03549056294749885</v>
+        <v>0.03554914311377162</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04536867160329198</v>
+        <v>0.04536884175255296</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3321561</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3300368</v>
+        <v>3299715</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3341947</v>
+        <v>3341781</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9692953965845076</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9631107771454676</v>
+        <v>0.9629202126840281</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9752442954690209</v>
+        <v>0.9751958236613455</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3131</v>
@@ -4334,19 +4334,19 @@
         <v>3382746</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3355148</v>
+        <v>3357093</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3408372</v>
+        <v>3409664</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9506611435625757</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9429053063496572</v>
+        <v>0.9434517746864437</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9578629628921982</v>
+        <v>0.95822601608577</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6241</v>
@@ -4355,19 +4355,19 @@
         <v>6704307</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6668184</v>
+        <v>6668183</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6737183</v>
+        <v>6736774</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9598028272178211</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9546313283967081</v>
+        <v>0.9546311582474473</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9645094370525013</v>
+        <v>0.9644508568862286</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>10682</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5516</v>
+        <v>5513</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19213</v>
+        <v>18755</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02546564732366838</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01314935241839532</v>
+        <v>0.01314197174809213</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04580269980671375</v>
+        <v>0.04471302372732597</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -4723,19 +4723,19 @@
         <v>16008</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8849</v>
+        <v>9578</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25266</v>
+        <v>25764</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04044941890788344</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02235925821775202</v>
+        <v>0.02420291726353901</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06384252267032192</v>
+        <v>0.06510036636229349</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -4744,19 +4744,19 @@
         <v>26690</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17223</v>
+        <v>18066</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38159</v>
+        <v>39523</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.032739655695639</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02112634413760741</v>
+        <v>0.02216079591605932</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04680795957218801</v>
+        <v>0.04848195591813043</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>408781</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>400250</v>
+        <v>400708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>413947</v>
+        <v>413950</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9745343526763316</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9541973001932862</v>
+        <v>0.955286976272674</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9868506475816047</v>
+        <v>0.9868580282519078</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>389</v>
@@ -4794,19 +4794,19 @@
         <v>379747</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>370489</v>
+        <v>369991</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>386906</v>
+        <v>386177</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9595505810921166</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.936157477329678</v>
+        <v>0.9348996336377063</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.977640741782248</v>
+        <v>0.9757970827364608</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>772</v>
@@ -4815,19 +4815,19 @@
         <v>788528</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>777059</v>
+        <v>775695</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>797995</v>
+        <v>797152</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.967260344304361</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9531920404278117</v>
+        <v>0.95151804408187</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9788736558623924</v>
+        <v>0.9778392040839408</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>13657</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7604</v>
+        <v>7766</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23307</v>
+        <v>24326</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02312810480961268</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0128775510041759</v>
+        <v>0.01315115882031447</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03946976332388619</v>
+        <v>0.04119650745553975</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -4940,19 +4940,19 @@
         <v>19470</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12612</v>
+        <v>12341</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29360</v>
+        <v>30250</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03454855629001685</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02237958220176983</v>
+        <v>0.02189817643841559</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05209821451614937</v>
+        <v>0.05367819301208512</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -4961,19 +4961,19 @@
         <v>33127</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23364</v>
+        <v>23275</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45022</v>
+        <v>46534</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02870496834947591</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02024558251577296</v>
+        <v>0.02016826019236423</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03901276815382029</v>
+        <v>0.04032233555101838</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>576839</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>567189</v>
+        <v>566170</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>582892</v>
+        <v>582730</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9768718951903873</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9605302366761139</v>
+        <v>0.9588034925444602</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9871224489958241</v>
+        <v>0.9868488411796854</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>559</v>
@@ -5011,19 +5011,19 @@
         <v>544074</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>534184</v>
+        <v>533294</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>550932</v>
+        <v>551203</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9654514437099831</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9479017854838505</v>
+        <v>0.9463218069879146</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9776204177982302</v>
+        <v>0.9781018235615844</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1113</v>
@@ -5032,19 +5032,19 @@
         <v>1120913</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1109018</v>
+        <v>1107506</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1130676</v>
+        <v>1130765</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9712950316505241</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9609872318461794</v>
+        <v>0.9596776644489816</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9797544174842269</v>
+        <v>0.9798317398076363</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>25290</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16771</v>
+        <v>16558</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36672</v>
+        <v>36196</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03779742866762582</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02506502425873405</v>
+        <v>0.02474678525617939</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05480794760548723</v>
+        <v>0.05409732553669658</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -5157,19 +5157,19 @@
         <v>52634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41112</v>
+        <v>41012</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66777</v>
+        <v>68361</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07958069893581678</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06215966651734613</v>
+        <v>0.06200991250557605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1009653225967954</v>
+        <v>0.103360202360377</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -5178,19 +5178,19 @@
         <v>77924</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62435</v>
+        <v>61464</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96766</v>
+        <v>95033</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05856799265817307</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04692640569412986</v>
+        <v>0.04619675071358511</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07272999625467635</v>
+        <v>0.07142756237689608</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>643807</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>632425</v>
+        <v>632901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>652326</v>
+        <v>652539</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9622025713323742</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9451920523945133</v>
+        <v>0.9459026744633031</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9749349757412668</v>
+        <v>0.9752532147438204</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>610</v>
@@ -5228,19 +5228,19 @@
         <v>608752</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>594609</v>
+        <v>593025</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>620274</v>
+        <v>620374</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9204193010641832</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8990346774032046</v>
+        <v>0.8966397976396229</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9378403334826538</v>
+        <v>0.9379900874944239</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1223</v>
@@ -5249,19 +5249,19 @@
         <v>1252559</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1233717</v>
+        <v>1235450</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1268048</v>
+        <v>1269019</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.941432007341827</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9272700037453245</v>
+        <v>0.9285724376231039</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9530735943058702</v>
+        <v>0.953803249286415</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>34082</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24829</v>
+        <v>24346</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47773</v>
+        <v>47089</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05275452625120494</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03843237703838696</v>
+        <v>0.03768489950424749</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07394648762661794</v>
+        <v>0.0728873573309351</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -5374,19 +5374,19 @@
         <v>79496</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63461</v>
+        <v>63129</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97418</v>
+        <v>98532</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1224749620967302</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09777143901772549</v>
+        <v>0.09726031459741898</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1500875275811206</v>
+        <v>0.1518037042129949</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -5395,19 +5395,19 @@
         <v>113578</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93995</v>
+        <v>93677</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>136427</v>
+        <v>137484</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08769626453714202</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07257568264243243</v>
+        <v>0.07233048418159788</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1053385171967435</v>
+        <v>0.1061548411097337</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>611966</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>598275</v>
+        <v>598959</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>621219</v>
+        <v>621702</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9472454737487951</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9260535123733825</v>
+        <v>0.9271126426690652</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9615676229616131</v>
+        <v>0.9623151004957526</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>529</v>
@@ -5445,19 +5445,19 @@
         <v>569581</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>551659</v>
+        <v>550545</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>585616</v>
+        <v>585948</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8775250379032697</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8499124724188796</v>
+        <v>0.8481962957870051</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9022285609822747</v>
+        <v>0.9027396854025809</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1078</v>
@@ -5466,19 +5466,19 @@
         <v>1181547</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1158698</v>
+        <v>1157641</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1201130</v>
+        <v>1201448</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.912303735462858</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8946614828032565</v>
+        <v>0.8938451588902663</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9274243173575676</v>
+        <v>0.9276695158184021</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>33888</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23077</v>
+        <v>23316</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47384</v>
+        <v>48108</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07090708408292698</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04828682778937923</v>
+        <v>0.048786579838925</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09914688302352964</v>
+        <v>0.100662173555001</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -5591,19 +5591,19 @@
         <v>93228</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>77689</v>
+        <v>73856</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113325</v>
+        <v>110882</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1876378358729338</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1563640435938913</v>
+        <v>0.1486481434303534</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2280865259409234</v>
+        <v>0.2231698149817769</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>112</v>
@@ -5612,19 +5612,19 @@
         <v>127115</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106624</v>
+        <v>104517</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>150883</v>
+        <v>150335</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1304059771172763</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.109384467040192</v>
+        <v>0.107222568805365</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1547887243601458</v>
+        <v>0.1542262780861283</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>444030</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>430534</v>
+        <v>429810</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>454841</v>
+        <v>454602</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.929092915917073</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9008531169764705</v>
+        <v>0.8993378264449993</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9517131722106211</v>
+        <v>0.9512134201610759</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>350</v>
@@ -5662,19 +5662,19 @@
         <v>403621</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>383524</v>
+        <v>385967</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>419160</v>
+        <v>422993</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8123621641270662</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7719134740590767</v>
+        <v>0.776830185018223</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8436359564061088</v>
+        <v>0.8513518565696466</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>745</v>
@@ -5683,19 +5683,19 @@
         <v>847652</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>823884</v>
+        <v>824432</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>868143</v>
+        <v>870250</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8695940228827237</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8452112756398541</v>
+        <v>0.8457737219138717</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.890615532959808</v>
+        <v>0.892777431194635</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>13704</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7883</v>
+        <v>7981</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21713</v>
+        <v>21865</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04098854600706147</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02357737809247758</v>
+        <v>0.02387066624577477</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0649462019422072</v>
+        <v>0.06539900525677926</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -5808,19 +5808,19 @@
         <v>62072</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48350</v>
+        <v>47783</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78639</v>
+        <v>77495</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1643151683022334</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1279912846166574</v>
+        <v>0.1264900007051411</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2081694974117902</v>
+        <v>0.2051414684984499</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>72</v>
@@ -5829,19 +5829,19 @@
         <v>75776</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>61499</v>
+        <v>58563</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>94976</v>
+        <v>93440</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1064128334651011</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08636344501003934</v>
+        <v>0.0822414128633278</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1333753392105833</v>
+        <v>0.1312185465742932</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>320626</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>312617</v>
+        <v>312465</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>326447</v>
+        <v>326349</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9590114539929385</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9350537980577932</v>
+        <v>0.9346009947432211</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9764226219075225</v>
+        <v>0.9761293337542254</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>296</v>
@@ -5879,19 +5879,19 @@
         <v>315690</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>299123</v>
+        <v>300267</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>329412</v>
+        <v>329979</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8356848316977666</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7918305025882095</v>
+        <v>0.7948585315015501</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8720087153833425</v>
+        <v>0.8735099992948587</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>607</v>
@@ -5900,19 +5900,19 @@
         <v>636316</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>617116</v>
+        <v>618652</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>650593</v>
+        <v>653529</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8935871665348989</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.866624660789416</v>
+        <v>0.8687814534257067</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9136365549899605</v>
+        <v>0.9177585871366718</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>21871</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14363</v>
+        <v>14244</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31550</v>
+        <v>30774</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08510160278575947</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05588840783749839</v>
+        <v>0.05542570702311785</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1227643550852974</v>
+        <v>0.1197445010748628</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -6025,19 +6025,19 @@
         <v>67893</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>52661</v>
+        <v>52268</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>85153</v>
+        <v>87169</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1696606012551782</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1315974172852328</v>
+        <v>0.1306142068371663</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2127928694536427</v>
+        <v>0.2178300377141325</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -6046,19 +6046,19 @@
         <v>89764</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>71972</v>
+        <v>71398</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>111477</v>
+        <v>109512</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1365921520446895</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1095192331410306</v>
+        <v>0.1086452177587537</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1696326194309643</v>
+        <v>0.1666424858717513</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>235127</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>225448</v>
+        <v>226224</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>242635</v>
+        <v>242754</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9148983972142405</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8772356449147026</v>
+        <v>0.8802554989251371</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9441115921625008</v>
+        <v>0.9445742929768822</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>249</v>
@@ -6096,19 +6096,19 @@
         <v>332276</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>315016</v>
+        <v>313000</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>347508</v>
+        <v>347901</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8303393987448218</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7872071305463573</v>
+        <v>0.7821699622858675</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8684025827147671</v>
+        <v>0.8693857931628337</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>526</v>
@@ -6117,19 +6117,19 @@
         <v>567403</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>545690</v>
+        <v>547655</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>585195</v>
+        <v>585769</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8634078479553106</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8303673805690357</v>
+        <v>0.8333575141282487</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8904807668589694</v>
+        <v>0.8913547822412463</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>153173</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>129984</v>
+        <v>130964</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>178133</v>
+        <v>181696</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04512600752087264</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03829418966934558</v>
+        <v>0.03858304280917845</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05247921054564728</v>
+        <v>0.05352888622643755</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>356</v>
@@ -6242,19 +6242,19 @@
         <v>390800</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>354857</v>
+        <v>357109</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>434049</v>
+        <v>434428</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1102538922748162</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1001136734966296</v>
+        <v>0.1007488491624178</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1224556491772921</v>
+        <v>0.1225624818039114</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>505</v>
@@ -6263,19 +6263,19 @@
         <v>543973</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>496437</v>
+        <v>500292</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>587730</v>
+        <v>594454</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07839479329151855</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07154409376801985</v>
+        <v>0.07209966493577387</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08470088887638755</v>
+        <v>0.08566991677627277</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3241177</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3216217</v>
+        <v>3212654</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3264366</v>
+        <v>3263386</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9548739924791274</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9475207894543526</v>
+        <v>0.9464711137735625</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9617058103306544</v>
+        <v>0.9614169571908215</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2982</v>
@@ -6313,19 +6313,19 @@
         <v>3153742</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3110493</v>
+        <v>3110114</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3189685</v>
+        <v>3187433</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8897461077251838</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8775443508227079</v>
+        <v>0.8774375181960885</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8998863265033703</v>
+        <v>0.8992511508375821</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6064</v>
@@ -6334,19 +6334,19 @@
         <v>6394919</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6351162</v>
+        <v>6344438</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6442455</v>
+        <v>6438600</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9216052067084815</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9152991111236125</v>
+        <v>0.9143300832237272</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9284559062319802</v>
+        <v>0.9279003350642262</v>
       </c>
     </row>
     <row r="27">
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18162</v>
+        <v>18330</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01267106233619712</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04453843824314306</v>
+        <v>0.04495013937778685</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -6702,19 +6702,19 @@
         <v>8072</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2228</v>
+        <v>2233</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19943</v>
+        <v>19326</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02226731502877223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006146175455716336</v>
+        <v>0.006159670476071913</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05501464125210089</v>
+        <v>0.05331002209536623</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -6723,19 +6723,19 @@
         <v>13239</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5523</v>
+        <v>5282</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30947</v>
+        <v>28678</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01718713888502446</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007170415081015311</v>
+        <v>0.006856546504287061</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04017474353860271</v>
+        <v>0.03723001338211434</v>
       </c>
     </row>
     <row r="5">
@@ -6752,7 +6752,7 @@
         <v>402626</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>389631</v>
+        <v>389463</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6761,7 +6761,7 @@
         <v>0.9873289376638029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9554615617568569</v>
+        <v>0.9550498606222132</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6773,19 +6773,19 @@
         <v>354440</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>342569</v>
+        <v>343186</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>360284</v>
+        <v>360279</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9777326849712277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.944985358747899</v>
+        <v>0.9466899779046335</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9938538245442838</v>
+        <v>0.993840329523928</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>373</v>
@@ -6794,19 +6794,19 @@
         <v>757066</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>739358</v>
+        <v>741627</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>764782</v>
+        <v>765023</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9828128611149756</v>
+        <v>0.9828128611149755</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9598252564613979</v>
+        <v>0.9627699866178857</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9928295849189847</v>
+        <v>0.993143453495713</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>11870</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4929</v>
+        <v>4776</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25972</v>
+        <v>24768</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02489113965729383</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01033497824466096</v>
+        <v>0.0100151232231886</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05446062062330282</v>
+        <v>0.05193751687269595</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -6919,19 +6919,19 @@
         <v>17718</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10150</v>
+        <v>10163</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29405</v>
+        <v>29025</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03531288443890933</v>
+        <v>0.03531288443890932</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02023050567032086</v>
+        <v>0.02025625077055708</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05860615201264872</v>
+        <v>0.05784938798762066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -6940,19 +6940,19 @@
         <v>29588</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17914</v>
+        <v>18664</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44300</v>
+        <v>47142</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03023429005102024</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01830498617546786</v>
+        <v>0.01907158001824939</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04526740896905944</v>
+        <v>0.04817148458004969</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>465020</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>450918</v>
+        <v>452122</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>471961</v>
+        <v>472114</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9751088603427059</v>
+        <v>0.9751088603427063</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9455393793766972</v>
+        <v>0.9480624831273037</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9896650217553389</v>
+        <v>0.9899848767768112</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>447</v>
@@ -6990,19 +6990,19 @@
         <v>484015</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>472328</v>
+        <v>472708</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>491583</v>
+        <v>491570</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9646871155610905</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9413938479873513</v>
+        <v>0.9421506120123795</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9797694943296792</v>
+        <v>0.9797437492294429</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>742</v>
@@ -7011,19 +7011,19 @@
         <v>949035</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>934323</v>
+        <v>931481</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>960709</v>
+        <v>959959</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9697657099489796</v>
+        <v>0.9697657099489799</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9547325910309405</v>
+        <v>0.9518285154199501</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9816950138245321</v>
+        <v>0.9809284199817505</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>19225</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11397</v>
+        <v>11656</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31445</v>
+        <v>30345</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03096638520618865</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01835817734801649</v>
+        <v>0.01877435790109802</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05064917605628366</v>
+        <v>0.04887786932454658</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -7136,19 +7136,19 @@
         <v>19069</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13004</v>
+        <v>12289</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28152</v>
+        <v>27573</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03059929804653039</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02086710680925185</v>
+        <v>0.01971925315682676</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04517313410708902</v>
+        <v>0.04424433354668999</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -7157,19 +7157,19 @@
         <v>38294</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26801</v>
+        <v>27822</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51390</v>
+        <v>52359</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03078249405180695</v>
+        <v>0.03078249405180694</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02154353215040549</v>
+        <v>0.02236419518259551</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04130964352129677</v>
+        <v>0.04208801070601258</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>601612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>589392</v>
+        <v>590492</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>609440</v>
+        <v>609181</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9690336147938113</v>
+        <v>0.9690336147938116</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9493508239437166</v>
+        <v>0.9511221306754535</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9816418226519835</v>
+        <v>0.9812256420989021</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>822</v>
@@ -7207,19 +7207,19 @@
         <v>604124</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>595041</v>
+        <v>595620</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>610189</v>
+        <v>610904</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9694007019534696</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.954826865892911</v>
+        <v>0.9557556664533101</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9791328931907481</v>
+        <v>0.9802807468431733</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1352</v>
@@ -7228,19 +7228,19 @@
         <v>1205735</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1192639</v>
+        <v>1191670</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1217228</v>
+        <v>1216207</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.969217505948193</v>
+        <v>0.9692175059481929</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9586903564787032</v>
+        <v>0.9579119892939875</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9784564678495945</v>
+        <v>0.9776358048174049</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>30659</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21277</v>
+        <v>21035</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42895</v>
+        <v>44026</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04376021352908769</v>
+        <v>0.04376021352908768</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03036824742122564</v>
+        <v>0.03002365378333092</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0612248459361204</v>
+        <v>0.06283843325917593</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -7353,19 +7353,19 @@
         <v>39392</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30225</v>
+        <v>30176</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49865</v>
+        <v>49607</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05345791170054578</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04101784055581518</v>
+        <v>0.04095091427300471</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06767004173996014</v>
+        <v>0.06731979469725956</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -7374,19 +7374,19 @@
         <v>70052</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56009</v>
+        <v>56572</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87165</v>
+        <v>84489</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0487314024556029</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03896282725819516</v>
+        <v>0.03935456344097571</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06063668581067887</v>
+        <v>0.05877484383255636</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>669958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>657722</v>
+        <v>656591</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>679340</v>
+        <v>679582</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9562397864709125</v>
+        <v>0.9562397864709121</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9387751540638798</v>
+        <v>0.9371615667408238</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9696317525787742</v>
+        <v>0.9699763462166691</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1082</v>
@@ -7424,19 +7424,19 @@
         <v>697494</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>687021</v>
+        <v>687279</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>706661</v>
+        <v>706710</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9465420882994542</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9323299582600397</v>
+        <v>0.9326802053027402</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9589821594441847</v>
+        <v>0.9590490857269953</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1717</v>
@@ -7445,19 +7445,19 @@
         <v>1367452</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1350339</v>
+        <v>1353015</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1381495</v>
+        <v>1380932</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9512685975443969</v>
+        <v>0.9512685975443972</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9393633141893211</v>
+        <v>0.9412251561674437</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9610371727418048</v>
+        <v>0.9606454365590242</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>24320</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16275</v>
+        <v>17000</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35723</v>
+        <v>36262</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03991180007613507</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0267085581323642</v>
+        <v>0.02789897340246727</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05862456327912291</v>
+        <v>0.05950893760097941</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -7570,19 +7570,19 @@
         <v>40207</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31159</v>
+        <v>30587</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50449</v>
+        <v>51228</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06603731980352864</v>
+        <v>0.06603731980352866</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05117567261694011</v>
+        <v>0.05023744120777181</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08285878211921695</v>
+        <v>0.0841379771645534</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -7591,19 +7591,19 @@
         <v>64527</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52397</v>
+        <v>51382</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79696</v>
+        <v>78256</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05296929448812041</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04301137559948683</v>
+        <v>0.04217835569057762</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06542138668724785</v>
+        <v>0.06423894756961412</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>585026</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>573623</v>
+        <v>573084</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>593071</v>
+        <v>592346</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9600881999238647</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.941375436720877</v>
+        <v>0.9404910623990204</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9732914418676356</v>
+        <v>0.9721010265975326</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>937</v>
@@ -7641,19 +7641,19 @@
         <v>568648</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>558406</v>
+        <v>557627</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>577696</v>
+        <v>578268</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9339626801964712</v>
+        <v>0.9339626801964716</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9171412178807831</v>
+        <v>0.9158620228354464</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9488243273830597</v>
+        <v>0.9497625587922282</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1575</v>
@@ -7662,19 +7662,19 @@
         <v>1153675</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1138506</v>
+        <v>1139946</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1165805</v>
+        <v>1166820</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9470307055118796</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9345786133127522</v>
+        <v>0.9357610524303858</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9569886244005134</v>
+        <v>0.9578216443094226</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>14248</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9396</v>
+        <v>8880</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23079</v>
+        <v>22412</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03500140935893388</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02308228575834177</v>
+        <v>0.02181452180547563</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05669517748909266</v>
+        <v>0.05505554118277464</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -7787,19 +7787,19 @@
         <v>28564</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22146</v>
+        <v>21532</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38166</v>
+        <v>36305</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06504098224066897</v>
+        <v>0.06504098224066895</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05042820557926082</v>
+        <v>0.04902835090912912</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08690545401402493</v>
+        <v>0.08266773488430744</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>67</v>
@@ -7808,19 +7808,19 @@
         <v>42812</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33540</v>
+        <v>33627</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53769</v>
+        <v>54075</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05059068953917854</v>
+        <v>0.05059068953917855</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03963354096590455</v>
+        <v>0.03973672414553048</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06353816598928137</v>
+        <v>0.06390038019671923</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>392832</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>384001</v>
+        <v>384668</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>397684</v>
+        <v>398200</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9649985906410661</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9433048225109074</v>
+        <v>0.9449444588172252</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9769177142416582</v>
+        <v>0.9781854781945244</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>778</v>
@@ -7858,19 +7858,19 @@
         <v>410602</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>401000</v>
+        <v>402861</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>417020</v>
+        <v>417634</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9349590177593311</v>
+        <v>0.934959017759331</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9130945459859752</v>
+        <v>0.9173322651156925</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9495717944207391</v>
+        <v>0.950971649090871</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1330</v>
@@ -7879,19 +7879,19 @@
         <v>803434</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>792477</v>
+        <v>792171</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>812706</v>
+        <v>812619</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9494093104608214</v>
+        <v>0.9494093104608216</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9364618340107187</v>
+        <v>0.9360996198032809</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9603664590340955</v>
+        <v>0.9602632758544697</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>16684</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10139</v>
+        <v>10828</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24010</v>
+        <v>24262</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0537834849374121</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03268396843185489</v>
+        <v>0.03490751989229081</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07740095321020238</v>
+        <v>0.07821510909472552</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -8004,19 +8004,19 @@
         <v>26706</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19860</v>
+        <v>19945</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34926</v>
+        <v>34654</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05747989401593011</v>
+        <v>0.0574798940159301</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04274654793074314</v>
+        <v>0.04292826418147165</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07517200087419439</v>
+        <v>0.07458697041621468</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>71</v>
@@ -8025,19 +8025,19 @@
         <v>43389</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>33788</v>
+        <v>34062</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53889</v>
+        <v>55581</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05600001638372229</v>
+        <v>0.05600001638372228</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04360834989119536</v>
+        <v>0.04396136897784728</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06955097250570852</v>
+        <v>0.07173512134191398</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>293514</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>286188</v>
+        <v>285936</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>300059</v>
+        <v>299370</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9462165150625877</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9225990467897976</v>
+        <v>0.9217848909052752</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9673160315681452</v>
+        <v>0.9650924801077092</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>832</v>
@@ -8075,19 +8075,19 @@
         <v>437903</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>429683</v>
+        <v>429955</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>444749</v>
+        <v>444664</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9425201059840699</v>
+        <v>0.9425201059840698</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9248279991258057</v>
+        <v>0.9254130295837855</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9572534520692569</v>
+        <v>0.9570717358185284</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1268</v>
@@ -8096,19 +8096,19 @@
         <v>731418</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>720918</v>
+        <v>719226</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>741019</v>
+        <v>740745</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9439999836162778</v>
+        <v>0.9439999836162777</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9304490274942915</v>
+        <v>0.9282648786580869</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9563916501088046</v>
+        <v>0.9560386310221529</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>122174</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>100078</v>
+        <v>99050</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>145596</v>
+        <v>146347</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03458307426502808</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02832844147691267</v>
+        <v>0.02803759447404517</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0412130449731771</v>
+        <v>0.04142558111685722</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>266</v>
@@ -8221,19 +8221,19 @@
         <v>179728</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>158850</v>
+        <v>159963</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>202201</v>
+        <v>203868</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04809481176350057</v>
+        <v>0.04809481176350056</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04250782549045935</v>
+        <v>0.04280583955611527</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05410845225639486</v>
+        <v>0.05455467979734376</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>386</v>
@@ -8242,19 +8242,19 @@
         <v>301902</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>269082</v>
+        <v>271286</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>335313</v>
+        <v>334753</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04152870229499092</v>
+        <v>0.04152870229499091</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03701404221082222</v>
+        <v>0.03731728425569844</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04612465339566971</v>
+        <v>0.04604764883757766</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3410588</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3387166</v>
+        <v>3386415</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3432684</v>
+        <v>3433712</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.965416925734972</v>
+        <v>0.9654169257349721</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.958786955026823</v>
+        <v>0.9585744188831422</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9716715585230867</v>
+        <v>0.9719624055259545</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5101</v>
@@ -8292,19 +8292,19 @@
         <v>3557226</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3534753</v>
+        <v>3533086</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3578104</v>
+        <v>3576991</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9519051882364995</v>
+        <v>0.9519051882364994</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.945891547743605</v>
+        <v>0.9454453202026558</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9574921745095405</v>
+        <v>0.9571941604438844</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8357</v>
@@ -8313,19 +8313,19 @@
         <v>6967814</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6934403</v>
+        <v>6934963</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7000634</v>
+        <v>6998430</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9584712977050091</v>
+        <v>0.9584712977050089</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9538753466043304</v>
+        <v>0.9539523511624225</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9629859577891779</v>
+        <v>0.9626827157443019</v>
       </c>
     </row>
     <row r="27">
